--- a/todo.xlsx
+++ b/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Objectifs</t>
   </si>
@@ -24,6 +24,9 @@
     <t xml:space="preserve">Site de suivies, des collectes et distributions des dons pour les sinistrés</t>
   </si>
   <si>
+    <t xml:space="preserve">Partie 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Base de données</t>
   </si>
   <si>
@@ -211,6 +214,144 @@
   </si>
   <si>
     <t xml:space="preserve">Mettre des vrais données depuis la base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partie 2</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tâche</t>
+  </si>
+  <si>
+    <t>Priorité</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire un table achat (avec colonne pourcentage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À faire</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction de recuperation des frais d'achat</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page de modification du % de frais</t>
+  </si>
+  <si>
+    <t>Achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creer la table achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champs: id, ville_id, besoin_id, montant, pourcentage, montant_total, date_achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification du dons argents avant achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul montant total avec frais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deduction auto du don argent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message d'erreur si argent insuffisant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrer achats par ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page de saisi achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste des achats filtrables par ville</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction simulation dispatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul besoins satisfaits apres simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul dons restants apres simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouton "Simuler"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage tableau resultat simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouton "Valider"  pour insert dispatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besoins restants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul besoin total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul besoin satisfait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul besoin restant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableau des besoins restants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouton "Acheter" par besoin</t>
+  </si>
+  <si>
+    <t>Recapitulatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requete total besoins (SUM quantite × prix_unitaire)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requête total satisfaits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requête total restants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page récapitulatif</t>
+  </si>
+  <si>
+    <t>FrontEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouton "Actualiser" en Ajax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requête AJAX refresh données</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage cartes (Total / Satisfait / Restant)</t>
   </si>
 </sst>
 </file>
@@ -237,12 +378,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor theme="9" tint="-0.249977111117893"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -263,13 +410,15 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,15 +917,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.421875"/>
-    <col customWidth="1" min="2" max="2" width="14.7109375"/>
-    <col customWidth="1" min="3" max="3" width="36.00390625"/>
+    <col customWidth="1" min="2" max="2" width="16.140625"/>
+    <col customWidth="1" min="3" max="3" width="76.140625"/>
     <col customWidth="1" min="5" max="5" width="21.00390625"/>
     <col customWidth="1" min="6" max="6" width="14.28125"/>
     <col customWidth="1" min="8" max="8" width="27.7109375"/>
@@ -799,44 +948,12 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+    <row r="4" ht="18.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" ht="18.75">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
@@ -845,492 +962,1081 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="14.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+    </row>
+    <row r="8" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" ht="18.75">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" ht="18.75">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="C8" t="s">
+      <c r="B10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="C9" t="s">
+    </row>
+    <row r="11" ht="14.25">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>10</v>
+      <c r="F11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="C12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
         <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="C21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s">
+    </row>
+    <row r="25" ht="14.25">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
+      <c r="F25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="F23" t="s">
+      <c r="I25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="27" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="26" ht="14.25">
+      <c r="F26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="27" ht="14.25">
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="30" ht="18.75">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" ht="16.5">
-      <c r="A28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="G30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="31" ht="16.5">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E28">
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5">
-      <c r="A29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="F31" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="4" t="s">
+    </row>
+    <row r="32" ht="16.5">
+      <c r="A32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="4">
+      <c r="C32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="5">
         <v>8</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="16.5">
-      <c r="A30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="4" t="s">
+    <row r="33" ht="16.5">
+      <c r="A33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="4">
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="5">
         <v>8</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="E31">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34">
         <v>7</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="4" t="s">
+    <row r="35" ht="14.25">
+      <c r="A35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="5">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="4">
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="5">
         <v>10</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="4">
+    <row r="37" ht="14.25">
+      <c r="A37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="5">
+        <v>7</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="5">
         <v>10</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="4">
-        <v>7</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="4">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="4">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="5">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0.92000000000000004</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42">
+      <c r="E41">
         <v>4</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1</v>
+      <c r="F41" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
         <v>60</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
       </c>
       <c r="E43">
         <v>5</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44">
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.92000000000000004</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45">
         <v>4</v>
       </c>
-      <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46">
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49">
         <v>7</v>
       </c>
-      <c r="F46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="5">
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+    </row>
+    <row r="53" ht="18.75">
+      <c r="A53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
+    </row>
+    <row r="58" ht="18.75">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="D62" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="D72" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="7"/>
+      <c r="D79" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -917,7 +917,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1610,9 +1610,12 @@
       <c r="D59" t="s">
         <v>73</v>
       </c>
+      <c r="F59" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B60" t="s">
@@ -1621,12 +1624,15 @@
       <c r="C60" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>73</v>
+      <c r="D60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B61" t="s">
@@ -1635,12 +1641,15 @@
       <c r="C61" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>73</v>
+      <c r="D61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1654,26 +1663,32 @@
       <c r="C63" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>73</v>
+      <c r="D63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>73</v>
+      <c r="D64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B65" t="s">
@@ -1682,68 +1697,83 @@
       <c r="C65" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>73</v>
+      <c r="D65" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>73</v>
+      <c r="D66" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>73</v>
+      <c r="D67" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>73</v>
+      <c r="D68" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C69" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>73</v>
+      <c r="D69" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
@@ -1752,12 +1782,15 @@
       <c r="C70" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>73</v>
+      <c r="D70" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B71" t="s">
@@ -1766,12 +1799,15 @@
       <c r="C71" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>73</v>
+      <c r="D71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1785,40 +1821,49 @@
       <c r="C73" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>73</v>
+      <c r="D73" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C74" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>73</v>
+      <c r="D74" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>73</v>
+      <c r="D75" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B76" t="s">
@@ -1827,26 +1872,32 @@
       <c r="C76" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>73</v>
+      <c r="D76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C77" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>73</v>
+      <c r="D77" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B78" t="s">
@@ -1855,13 +1906,16 @@
       <c r="C78" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>73</v>
+      <c r="D78" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="7"/>
-      <c r="D79" s="7" t="s">
+      <c r="A79" s="5"/>
+      <c r="D79" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1875,40 +1929,49 @@
       <c r="C80" t="s">
         <v>97</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>73</v>
+      <c r="D80" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C81" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>73</v>
+      <c r="D81" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C82" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>73</v>
+      <c r="D82" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B83" t="s">
@@ -1917,12 +1980,15 @@
       <c r="C83" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>73</v>
+      <c r="D83" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B84" t="s">
@@ -1931,15 +1997,16 @@
       <c r="C84" t="s">
         <v>101</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>73</v>
+      <c r="D84" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="7"/>
-      <c r="D85" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" t="s">
@@ -1951,40 +2018,49 @@
       <c r="C86" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>73</v>
+      <c r="D86" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>73</v>
+      <c r="D87" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C88" t="s">
         <v>105</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>73</v>
+      <c r="D88" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B89" t="s">
@@ -1993,12 +2069,15 @@
       <c r="C89" t="s">
         <v>106</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>73</v>
+      <c r="D89" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B90" t="s">
@@ -2007,26 +2086,32 @@
       <c r="C90" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>73</v>
+      <c r="D90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F90" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C91" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>73</v>
+      <c r="D91" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B92" t="s">
@@ -2035,8 +2120,11 @@
       <c r="C92" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>73</v>
+      <c r="D92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -418,7 +418,6 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,7 +916,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1649,9 +1648,7 @@
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="D62" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" ht="14.25">
       <c r="A63" t="s">
@@ -1683,7 +1680,7 @@
       <c r="D64" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1717,7 +1714,7 @@
       <c r="D66" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1734,7 +1731,7 @@
       <c r="D67" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1751,7 +1748,7 @@
       <c r="D68" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1785,7 +1782,7 @@
       <c r="D70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1802,14 +1799,12 @@
       <c r="D71" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="D72" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
@@ -1841,7 +1836,7 @@
       <c r="D74" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1858,7 +1853,7 @@
       <c r="D75" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1875,7 +1870,7 @@
       <c r="D76" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1909,7 +1904,7 @@
       <c r="D78" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1949,7 +1944,7 @@
       <c r="D81" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1966,7 +1961,7 @@
       <c r="D82" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1983,7 +1978,7 @@
       <c r="D83" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2000,7 +1995,7 @@
       <c r="D84" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2038,7 +2033,7 @@
       <c r="D87" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2055,7 +2050,7 @@
       <c r="D88" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="5" t="s">
         <v>48</v>
       </c>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Objectifs</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Priorité</t>
+  </si>
+  <si>
+    <t>Avancement</t>
   </si>
   <si>
     <t>Configuration</t>
@@ -916,7 +919,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A60" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -927,6 +930,7 @@
     <col customWidth="1" min="3" max="3" width="76.140625"/>
     <col customWidth="1" min="5" max="5" width="21.00390625"/>
     <col customWidth="1" min="6" max="6" width="14.28125"/>
+    <col customWidth="1" min="7" max="7" width="26.7109375"/>
     <col customWidth="1" min="8" max="8" width="27.7109375"/>
     <col customWidth="1" min="9" max="9" width="26.00390625"/>
   </cols>
@@ -1595,36 +1599,42 @@
       <c r="F58" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G58" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
         <v>43</v>
       </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
         <v>48</v>
@@ -1632,16 +1642,16 @@
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
         <v>40</v>
@@ -1652,50 +1662,56 @@
     </row>
     <row r="63" ht="14.25">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
         <v>43</v>
       </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -1703,16 +1719,16 @@
     </row>
     <row r="66" ht="14.25">
       <c r="A66" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>48</v>
@@ -1720,16 +1736,16 @@
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>48</v>
@@ -1737,16 +1753,16 @@
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>48</v>
@@ -1754,16 +1770,16 @@
     </row>
     <row r="69" ht="14.25">
       <c r="A69" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
         <v>40</v>
@@ -1771,16 +1787,16 @@
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
         <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>40</v>
@@ -1788,16 +1804,16 @@
     </row>
     <row r="71" ht="14.25">
       <c r="A71" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>40</v>
@@ -1808,16 +1824,16 @@
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -1825,16 +1841,16 @@
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>48</v>
@@ -1842,16 +1858,16 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>48</v>
@@ -1859,16 +1875,16 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
         <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>48</v>
@@ -1876,16 +1892,16 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s">
         <v>48</v>
@@ -1893,16 +1909,16 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>48</v>
@@ -1910,22 +1926,20 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="5"/>
-      <c r="D79" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
         <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s">
         <v>43</v>
@@ -1933,16 +1947,16 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>43</v>
@@ -1950,16 +1964,16 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>43</v>
@@ -1967,16 +1981,16 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
         <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>40</v>
@@ -1984,16 +1998,16 @@
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
         <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>40</v>
@@ -2005,16 +2019,16 @@
     </row>
     <row r="86" ht="14.25">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
         <v>46</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F86" t="s">
         <v>48</v>
@@ -2022,16 +2036,16 @@
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>48</v>
@@ -2039,16 +2053,16 @@
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>48</v>
@@ -2056,16 +2070,16 @@
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
         <v>54</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F89" t="s">
         <v>40</v>
@@ -2073,16 +2087,16 @@
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -2090,16 +2104,16 @@
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F91" t="s">
         <v>48</v>
@@ -2107,16 +2121,16 @@
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F92" t="s">
         <v>40</v>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Objectifs</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t xml:space="preserve">Page de modification du % de frais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page d'insertion de don pour chaque ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page de visualisation des dons en details</t>
   </si>
   <si>
     <t>Achat</t>
@@ -413,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -421,6 +427,9 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1658,42 +1667,44 @@
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="D62" s="5"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" t="s">
+      <c r="A63" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="A64" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="5" t="s">
+      <c r="D64" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G64" s="6">
@@ -1701,221 +1712,213 @@
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>83</v>
-      </c>
       <c r="D66" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>48</v>
+      <c r="F66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F69" t="s">
-        <v>40</v>
+      <c r="F69" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" t="s">
-        <v>54</v>
+        <v>81</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
         <v>88</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="D73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25">
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" ht="14.25">
-      <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
         <v>75</v>
       </c>
-      <c r="C74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25">
-      <c r="A75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25">
-      <c r="A76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" t="s">
-        <v>94</v>
-      </c>
       <c r="D76" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>74</v>
@@ -1925,214 +1928,265 @@
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
         <v>97</v>
       </c>
-      <c r="B80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" t="s">
-        <v>98</v>
-      </c>
       <c r="D80" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s">
         <v>46</v>
       </c>
-      <c r="C81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F81" s="5" t="s">
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25">
-      <c r="A82" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" t="s">
-        <v>100</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25">
-      <c r="A83" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
         <v>54</v>
       </c>
-      <c r="C84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F84" s="5" t="s">
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25">
-      <c r="A85" s="5"/>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" ht="14.25">
-      <c r="A86" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C86" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F86" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="5" t="s">
+      <c r="C89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25">
-      <c r="A88" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25">
-      <c r="A89" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C89" t="s">
-        <v>107</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
         <v>108</v>
       </c>
-      <c r="C91" t="s">
-        <v>110</v>
-      </c>
       <c r="D91" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" t="s">
         <v>111</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D93" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" t="s">
         <v>112</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="D94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" t="s">
         <v>40</v>
       </c>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Objectifs</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t xml:space="preserve">Liste des achats filtrables par ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Simulation</t>
@@ -928,7 +931,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A59" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1689,7 +1692,9 @@
       <c r="F63" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G63" s="6"/>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" s="8" t="s">
@@ -1874,108 +1879,110 @@
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="D75" s="5"/>
+      <c r="D75" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>48</v>
+      <c r="F77" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>48</v>
+      <c r="F78" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>48</v>
+      <c r="F79" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F80" t="s">
-        <v>48</v>
+      <c r="F80" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
         <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>48</v>
+      <c r="F81" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="82" ht="14.25">
@@ -1984,13 +1991,13 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
         <v>46</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>74</v>
@@ -2001,13 +2008,13 @@
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>74</v>
@@ -2018,13 +2025,13 @@
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>74</v>
@@ -2035,13 +2042,13 @@
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
         <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>74</v>
@@ -2052,13 +2059,13 @@
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
         <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>74</v>
@@ -2073,13 +2080,13 @@
     </row>
     <row r="89" ht="14.25">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
         <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>74</v>
@@ -2090,13 +2097,13 @@
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>74</v>
@@ -2107,13 +2114,13 @@
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>74</v>
@@ -2124,13 +2131,13 @@
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
         <v>54</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>74</v>
@@ -2141,13 +2148,13 @@
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>74</v>
@@ -2158,13 +2165,13 @@
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>74</v>
@@ -2175,13 +2182,13 @@
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>74</v>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Objectifs</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t xml:space="preserve">Affichage cartes (Total / Satisfait / Restant)</t>
+  </si>
+  <si>
+    <t>UI/UX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design integrale des interfaces</t>
   </si>
 </sst>
 </file>
@@ -931,7 +937,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A78" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1899,6 +1905,9 @@
       <c r="F76" t="s">
         <v>43</v>
       </c>
+      <c r="G76" s="6">
+        <v>0.84999999999999998</v>
+      </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="5" t="s">
@@ -1916,6 +1925,9 @@
       <c r="F77" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="5" t="s">
@@ -1933,6 +1945,9 @@
       <c r="F78" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="5" t="s">
@@ -1950,6 +1965,9 @@
       <c r="F79" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="5" t="s">
@@ -1967,6 +1985,9 @@
       <c r="F80" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="G80" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="5" t="s">
@@ -1984,6 +2005,9 @@
       <c r="F81" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="G81" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="5"/>
@@ -2195,6 +2219,23 @@
       </c>
       <c r="F95" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F97" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -937,7 +937,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2184,7 +2184,7 @@
         <v>74</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" ht="14.25">
@@ -2200,8 +2200,8 @@
       <c r="D94" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F94" t="s">
-        <v>48</v>
+      <c r="F94" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="14.25">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -428,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -436,9 +436,6 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,7 +934,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A74" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1676,26 +1673,25 @@
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62"/>
-      <c r="F62" s="7"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" s="8" t="s">
+      <c r="D63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G63" s="6">
@@ -1703,19 +1699,19 @@
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="D64" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G64" s="6">
@@ -1885,7 +1881,7 @@
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1906,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="G76" s="6">
-        <v>0.84999999999999998</v>
+        <v>0.94999999999999996</v>
       </c>
     </row>
     <row r="77" ht="14.25">
@@ -1922,7 +1918,7 @@
       <c r="D77" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G77" s="6">
@@ -1942,7 +1938,7 @@
       <c r="D78" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G78" s="6">
@@ -1962,7 +1958,7 @@
       <c r="D79" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G79" s="6">
@@ -1982,7 +1978,7 @@
       <c r="D80" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G80" s="6">
@@ -2002,11 +1998,11 @@
       <c r="D81" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G81" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" ht="14.25">
@@ -2200,7 +2196,7 @@
       <c r="D94" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="5" t="s">
         <v>43</v>
       </c>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\xampp\htdocs\S3\projet_final\DonBNGRC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24D16F-F511-40D8-B1EA-E256DE03DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="119">
   <si>
     <t>Objectifs</t>
   </si>
   <si>
-    <t xml:space="preserve">Site de suivies, des collectes et distributions des dons pour les sinistrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partie 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table de region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table de status</t>
+    <t>Site de suivies, des collectes et distributions des dons pour les sinistrés</t>
+  </si>
+  <si>
+    <t>Partie 1</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>Table de region</t>
+  </si>
+  <si>
+    <t>Table de status</t>
   </si>
   <si>
     <t>id</t>
@@ -45,13 +49,13 @@
     <t>libelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Table de ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table de categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table d'utilisateur</t>
+    <t>Table de ville</t>
+  </si>
+  <si>
+    <t>Table de categories</t>
+  </si>
+  <si>
+    <t>Table d'utilisateur</t>
   </si>
   <si>
     <t xml:space="preserve">id </t>
@@ -69,10 +73,10 @@
     <t>mot_de_passe</t>
   </si>
   <si>
-    <t xml:space="preserve">Table de besoins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table de don</t>
+    <t>Table de besoins</t>
+  </si>
+  <si>
+    <t>Table de don</t>
   </si>
   <si>
     <t xml:space="preserve">Table de mouvement </t>
@@ -123,13 +127,13 @@
     <t>Etat</t>
   </si>
   <si>
-    <t xml:space="preserve">Priorité (1 à 10)</t>
+    <t>Priorité (1 à 10)</t>
   </si>
   <si>
     <t>Qui?</t>
   </si>
   <si>
-    <t xml:space="preserve">Avancement %</t>
+    <t>Avancement %</t>
   </si>
   <si>
     <t>Fonctions</t>
@@ -144,7 +148,7 @@
     <t>Creation</t>
   </si>
   <si>
-    <t xml:space="preserve">Creation des tables</t>
+    <t>Creation des tables</t>
   </si>
   <si>
     <t>Sarobidy</t>
@@ -153,22 +157,22 @@
     <t>Insertion</t>
   </si>
   <si>
-    <t xml:space="preserve">Insertion de données</t>
+    <t>Insertion de données</t>
   </si>
   <si>
     <t>Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Lister villes</t>
+    <t>Lister villes</t>
   </si>
   <si>
     <t>Sandro</t>
   </si>
   <si>
-    <t xml:space="preserve">Lister dons/ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lister besoins/ville</t>
+    <t>Lister dons/ville</t>
+  </si>
+  <si>
+    <t>Lister besoins/ville</t>
   </si>
   <si>
     <t>Route</t>
@@ -183,40 +187,40 @@
     <t>Vue</t>
   </si>
   <si>
-    <t xml:space="preserve">Affichage villes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lister tout les besoins/dons par ville</t>
+    <t>Affichage villes</t>
+  </si>
+  <si>
+    <t>Lister tout les besoins/dons par ville</t>
   </si>
   <si>
     <t>Design</t>
   </si>
   <si>
-    <t xml:space="preserve">Apparence global</t>
+    <t>Apparence global</t>
   </si>
   <si>
     <t>Formulaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajouter don</t>
+    <t>Ajouter don</t>
   </si>
   <si>
     <t>Fonction</t>
   </si>
   <si>
-    <t xml:space="preserve">Filtre don par ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lister besoins par ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insertion des besoins des sinistres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre des vrais données depuis la base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partie 2</t>
+    <t>Filtre don par ville</t>
+  </si>
+  <si>
+    <t>Lister besoins par ville</t>
+  </si>
+  <si>
+    <t>Insertion des besoins des sinistres</t>
+  </si>
+  <si>
+    <t>Mettre des vrais données depuis la base</t>
+  </si>
+  <si>
+    <t>Partie 2</t>
   </si>
   <si>
     <t>Module</t>
@@ -237,61 +241,61 @@
     <t>Configuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Faire un table achat (avec colonne pourcentage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À faire</t>
+    <t>Faire un table achat (avec colonne pourcentage)</t>
+  </si>
+  <si>
+    <t>À faire</t>
   </si>
   <si>
     <t>Backend</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonction de recuperation des frais d'achat</t>
+    <t>Fonction de recuperation des frais d'achat</t>
   </si>
   <si>
     <t>Interface</t>
   </si>
   <si>
-    <t xml:space="preserve">Page de modification du % de frais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page d'insertion de don pour chaque ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page de visualisation des dons en details</t>
+    <t>Page de modification du % de frais</t>
+  </si>
+  <si>
+    <t>Page d'insertion de don pour chaque ville</t>
+  </si>
+  <si>
+    <t>Page de visualisation des dons en details</t>
   </si>
   <si>
     <t>Achat</t>
   </si>
   <si>
-    <t xml:space="preserve">Creer la table achat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Champs: id, ville_id, besoin_id, montant, pourcentage, montant_total, date_achat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verification du dons argents avant achat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcul montant total avec frais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deduction auto du don argent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message d'erreur si argent insuffisant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtrer achats par ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page de saisi achat</t>
+    <t>Creer la table achat</t>
+  </si>
+  <si>
+    <t>Champs: id, ville_id, besoin_id, montant, pourcentage, montant_total, date_achat</t>
+  </si>
+  <si>
+    <t>Verification du dons argents avant achat</t>
+  </si>
+  <si>
+    <t>Calcul montant total avec frais</t>
+  </si>
+  <si>
+    <t>Deduction auto du don argent</t>
+  </si>
+  <si>
+    <t>Message d'erreur si argent insuffisant</t>
+  </si>
+  <si>
+    <t>Filtrer achats par ville</t>
+  </si>
+  <si>
+    <t>Page de saisi achat</t>
   </si>
   <si>
     <t xml:space="preserve">Vue </t>
   </si>
   <si>
-    <t xml:space="preserve">Liste des achats filtrables par ville</t>
+    <t>Liste des achats filtrables par ville</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -300,97 +304,100 @@
     <t>Simulation</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonction simulation dispatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcul besoins satisfaits apres simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcul dons restants apres simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouton "Simuler"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage tableau resultat simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouton "Valider"  pour insert dispatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Besoins restants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcul besoin total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcul besoin satisfait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcul besoin restant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tableau des besoins restants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouton "Acheter" par besoin</t>
+    <t>Fonction simulation dispatch</t>
+  </si>
+  <si>
+    <t>Calcul besoins satisfaits apres simulation</t>
+  </si>
+  <si>
+    <t>Calcul dons restants apres simulation</t>
+  </si>
+  <si>
+    <t>Bouton "Simuler"</t>
+  </si>
+  <si>
+    <t>Affichage tableau resultat simulation</t>
+  </si>
+  <si>
+    <t>Bouton "Valider"  pour insert dispatch</t>
+  </si>
+  <si>
+    <t>Besoins restants</t>
+  </si>
+  <si>
+    <t>Calcul besoin total</t>
+  </si>
+  <si>
+    <t>Calcul besoin satisfait</t>
+  </si>
+  <si>
+    <t>Calcul besoin restant</t>
+  </si>
+  <si>
+    <t>Tableau des besoins restants</t>
+  </si>
+  <si>
+    <t>Bouton "Acheter" par besoin</t>
   </si>
   <si>
     <t>Recapitulatif</t>
   </si>
   <si>
-    <t xml:space="preserve">Requete total besoins (SUM quantite × prix_unitaire)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requête total satisfaits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requête total restants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page récapitulatif</t>
+    <t>Requete total besoins (SUM quantite × prix_unitaire)</t>
+  </si>
+  <si>
+    <t>Requête total satisfaits</t>
+  </si>
+  <si>
+    <t>Requête total restants</t>
+  </si>
+  <si>
+    <t>Page récapitulatif</t>
   </si>
   <si>
     <t>FrontEnd</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouton "Actualiser" en Ajax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requête AJAX refresh données</t>
+    <t>Bouton "Actualiser" en Ajax</t>
+  </si>
+  <si>
+    <t>Requête AJAX refresh données</t>
   </si>
   <si>
     <t>UX</t>
   </si>
   <si>
-    <t xml:space="preserve">Affichage cartes (Total / Satisfait / Restant)</t>
+    <t>Affichage cartes (Total / Satisfait / Restant)</t>
   </si>
   <si>
     <t>UI/UX</t>
   </si>
   <si>
-    <t xml:space="preserve">Design integrale des interfaces</t>
+    <t>Design integrale des interfaces</t>
+  </si>
+  <si>
+    <t>Fait</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.000000"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -418,24 +425,23 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,291 +459,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -928,59 +651,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ97"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.421875"/>
-    <col customWidth="1" min="2" max="2" width="16.140625"/>
-    <col customWidth="1" min="3" max="3" width="76.140625"/>
-    <col customWidth="1" min="5" max="5" width="21.00390625"/>
-    <col customWidth="1" min="6" max="6" width="14.28125"/>
-    <col customWidth="1" min="7" max="7" width="26.7109375"/>
-    <col customWidth="1" min="8" max="8" width="27.7109375"/>
-    <col customWidth="1" min="9" max="9" width="26.00390625"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75">
+    <row r="1" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" ht="18.75">
+    <row r="2" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" ht="18.75">
+    <row r="3" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" ht="18.75">
+    <row r="4" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" ht="18.75">
+    <row r="5" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" ht="18.75">
+    <row r="6" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1016,17 +741,17 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" ht="18.75">
+    <row r="8" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" ht="18.75">
+    <row r="9" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" ht="18.75">
+    <row r="10" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="18.75">
+    <row r="14" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -1101,11 +826,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1172,25 +897,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="30" ht="18.75">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1213,11 +931,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" ht="16.5">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="C31" t="s">
@@ -1230,47 +948,47 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" ht="16.5">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32">
         <v>8</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5">
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33">
         <v>8</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1283,81 +1001,74 @@
       <c r="E34">
         <v>7</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="5" t="s">
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35">
         <v>10</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="5" t="s">
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36">
         <v>10</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="5" t="s">
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37">
         <v>7</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" ht="14.25">
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1367,17 +1078,17 @@
       <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39">
         <v>10</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1387,17 +1098,17 @@
       <c r="C40" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40">
         <v>10</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1414,7 +1125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" ht="14.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1430,11 +1141,11 @@
       <c r="F43" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="6">
-        <v>0.92000000000000004</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25">
+      <c r="G43" s="5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1447,14 +1158,14 @@
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25">
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1467,14 +1178,14 @@
       <c r="E46">
         <v>5</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25">
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1490,11 +1201,11 @@
       <c r="F47" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25">
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1510,11 +1221,11 @@
       <c r="F49" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25">
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1552,12 +1263,12 @@
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
     </row>
-    <row r="53" ht="18.75">
+    <row r="53" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" ht="14.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1595,7 +1306,7 @@
       <c r="AI56" s="3"/>
       <c r="AJ56" s="3"/>
     </row>
-    <row r="58" ht="18.75">
+    <row r="58" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -1618,7 +1329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" ht="14.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -1629,17 +1340,17 @@
         <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="F59" t="s">
         <v>43</v>
       </c>
-      <c r="G59" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="A60" s="5" t="s">
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>72</v>
       </c>
       <c r="B60" t="s">
@@ -1648,15 +1359,15 @@
       <c r="C60" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" t="s">
         <v>74</v>
       </c>
       <c r="F60" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" ht="14.25">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>72</v>
       </c>
       <c r="B61" t="s">
@@ -1665,63 +1376,54 @@
       <c r="C61" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" t="s">
         <v>74</v>
       </c>
       <c r="F61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" ht="14.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="A64" s="5" t="s">
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" ht="14.25">
+      <c r="D64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -1731,38 +1433,38 @@
       <c r="C66" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>74</v>
+      <c r="D66" t="s">
+        <v>118</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
       </c>
-      <c r="G66" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="A67" s="5" t="s">
+      <c r="G66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="A68" s="5" t="s">
+      <c r="D67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>81</v>
       </c>
       <c r="B68" t="s">
@@ -1771,83 +1473,83 @@
       <c r="C68" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" t="s">
         <v>74</v>
       </c>
       <c r="F68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" ht="14.25">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" t="s">
         <v>74</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" ht="14.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>75</v>
       </c>
       <c r="C70" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" t="s">
         <v>74</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" ht="14.25">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" t="s">
         <v>75</v>
       </c>
       <c r="C71" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" t="s">
         <v>74</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" ht="14.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" t="s">
         <v>46</v>
       </c>
       <c r="C72" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" t="s">
         <v>74</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" ht="14.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>81</v>
       </c>
       <c r="B73" t="s">
@@ -1856,15 +1558,15 @@
       <c r="C73" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" t="s">
         <v>74</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" ht="14.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>81</v>
       </c>
       <c r="B74" t="s">
@@ -1873,19 +1575,19 @@
       <c r="C74" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" ht="14.25">
-      <c r="D75" s="5" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="76" ht="14.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>93</v>
       </c>
@@ -1895,58 +1597,58 @@
       <c r="C76" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" t="s">
         <v>74</v>
       </c>
       <c r="F76" t="s">
         <v>43</v>
       </c>
-      <c r="G76" s="6">
-        <v>0.94999999999999996</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25">
-      <c r="A77" s="5" t="s">
+      <c r="G76" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>75</v>
       </c>
       <c r="C77" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25">
-      <c r="A78" s="5" t="s">
+      <c r="D77" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>75</v>
       </c>
       <c r="C78" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25">
-      <c r="A79" s="5" t="s">
+      <c r="D78" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>93</v>
       </c>
       <c r="B79" t="s">
@@ -1955,38 +1657,38 @@
       <c r="C79" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25">
-      <c r="A80" s="5" t="s">
+      <c r="D79" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>54</v>
       </c>
       <c r="C80" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25">
-      <c r="A81" s="5" t="s">
+      <c r="D80" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>93</v>
       </c>
       <c r="B81" t="s">
@@ -1995,21 +1697,17 @@
       <c r="C81" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G81" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25">
-      <c r="A82" s="5"/>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" ht="14.25">
+      <c r="D81" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -2019,49 +1717,49 @@
       <c r="C83" t="s">
         <v>101</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>74</v>
+      <c r="D83" t="s">
+        <v>118</v>
       </c>
       <c r="F83" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="84" ht="14.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>46</v>
       </c>
       <c r="C84" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25">
-      <c r="A85" s="5" t="s">
+      <c r="D84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" t="s">
         <v>46</v>
       </c>
       <c r="C85" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25">
-      <c r="A86" s="5" t="s">
+      <c r="D85" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>100</v>
       </c>
       <c r="B86" t="s">
@@ -2070,15 +1768,15 @@
       <c r="C86" t="s">
         <v>104</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" t="s">
         <v>74</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="87" ht="14.25">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>100</v>
       </c>
       <c r="B87" t="s">
@@ -2087,18 +1785,14 @@
       <c r="C87" t="s">
         <v>105</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" t="s">
         <v>74</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="88" ht="14.25">
-      <c r="A88" s="5"/>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" ht="14.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -2108,49 +1802,49 @@
       <c r="C89" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" t="s">
         <v>74</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="90" ht="14.25">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" t="s">
         <v>74</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" ht="14.25">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" t="s">
         <v>46</v>
       </c>
       <c r="C91" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" t="s">
         <v>74</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" ht="14.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>106</v>
       </c>
       <c r="B92" t="s">
@@ -2159,15 +1853,15 @@
       <c r="C92" t="s">
         <v>110</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" t="s">
         <v>74</v>
       </c>
       <c r="F92" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" ht="14.25">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>106</v>
       </c>
       <c r="B93" t="s">
@@ -2176,32 +1870,32 @@
       <c r="C93" t="s">
         <v>112</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" t="s">
         <v>74</v>
       </c>
       <c r="F93" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" ht="14.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" t="s">
         <v>111</v>
       </c>
       <c r="C94" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" t="s">
         <v>74</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25">
-      <c r="A95" s="5" t="s">
+      <c r="F94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>106</v>
       </c>
       <c r="B95" t="s">
@@ -2210,14 +1904,14 @@
       <c r="C95" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" t="s">
         <v>74</v>
       </c>
       <c r="F95" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="97" ht="14.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>57</v>
       </c>
@@ -2235,9 +1929,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,43 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\xampp\htdocs\S3\projet_final\DonBNGRC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24D16F-F511-40D8-B1EA-E256DE03DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Objectifs</t>
   </si>
   <si>
-    <t>Site de suivies, des collectes et distributions des dons pour les sinistrés</t>
-  </si>
-  <si>
-    <t>Partie 1</t>
-  </si>
-  <si>
-    <t>Base de données</t>
-  </si>
-  <si>
-    <t>Table de region</t>
-  </si>
-  <si>
-    <t>Table de status</t>
+    <t xml:space="preserve">Site de suivies, des collectes et distributions des dons pour les sinistrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partie 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table de region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table de status</t>
   </si>
   <si>
     <t>id</t>
@@ -49,13 +45,13 @@
     <t>libelle</t>
   </si>
   <si>
-    <t>Table de ville</t>
-  </si>
-  <si>
-    <t>Table de categories</t>
-  </si>
-  <si>
-    <t>Table d'utilisateur</t>
+    <t xml:space="preserve">Table de ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table de categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table d'utilisateur</t>
   </si>
   <si>
     <t xml:space="preserve">id </t>
@@ -73,10 +69,10 @@
     <t>mot_de_passe</t>
   </si>
   <si>
-    <t>Table de besoins</t>
-  </si>
-  <si>
-    <t>Table de don</t>
+    <t xml:space="preserve">Table de besoins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table de don</t>
   </si>
   <si>
     <t xml:space="preserve">Table de mouvement </t>
@@ -127,13 +123,13 @@
     <t>Etat</t>
   </si>
   <si>
-    <t>Priorité (1 à 10)</t>
+    <t xml:space="preserve">Priorité (1 à 10)</t>
   </si>
   <si>
     <t>Qui?</t>
   </si>
   <si>
-    <t>Avancement %</t>
+    <t xml:space="preserve">Avancement %</t>
   </si>
   <si>
     <t>Fonctions</t>
@@ -148,7 +144,7 @@
     <t>Creation</t>
   </si>
   <si>
-    <t>Creation des tables</t>
+    <t xml:space="preserve">Creation des tables</t>
   </si>
   <si>
     <t>Sarobidy</t>
@@ -157,22 +153,22 @@
     <t>Insertion</t>
   </si>
   <si>
-    <t>Insertion de données</t>
+    <t xml:space="preserve">Insertion de données</t>
   </si>
   <si>
     <t>Service</t>
   </si>
   <si>
-    <t>Lister villes</t>
+    <t xml:space="preserve">Lister villes</t>
   </si>
   <si>
     <t>Sandro</t>
   </si>
   <si>
-    <t>Lister dons/ville</t>
-  </si>
-  <si>
-    <t>Lister besoins/ville</t>
+    <t xml:space="preserve">Lister dons/ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lister besoins/ville</t>
   </si>
   <si>
     <t>Route</t>
@@ -187,40 +183,40 @@
     <t>Vue</t>
   </si>
   <si>
-    <t>Affichage villes</t>
-  </si>
-  <si>
-    <t>Lister tout les besoins/dons par ville</t>
+    <t xml:space="preserve">Affichage villes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lister tout les besoins/dons par ville</t>
   </si>
   <si>
     <t>Design</t>
   </si>
   <si>
-    <t>Apparence global</t>
+    <t xml:space="preserve">Apparence global</t>
   </si>
   <si>
     <t>Formulaire</t>
   </si>
   <si>
-    <t>Ajouter don</t>
+    <t xml:space="preserve">Ajouter don</t>
   </si>
   <si>
     <t>Fonction</t>
   </si>
   <si>
-    <t>Filtre don par ville</t>
-  </si>
-  <si>
-    <t>Lister besoins par ville</t>
-  </si>
-  <si>
-    <t>Insertion des besoins des sinistres</t>
-  </si>
-  <si>
-    <t>Mettre des vrais données depuis la base</t>
-  </si>
-  <si>
-    <t>Partie 2</t>
+    <t xml:space="preserve">Filtre don par ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lister besoins par ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion des besoins des sinistres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des vrais données depuis la base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partie 2</t>
   </si>
   <si>
     <t>Module</t>
@@ -241,61 +237,64 @@
     <t>Configuration</t>
   </si>
   <si>
-    <t>Faire un table achat (avec colonne pourcentage)</t>
-  </si>
-  <si>
-    <t>À faire</t>
+    <t xml:space="preserve">Faire un table achat (avec colonne pourcentage)</t>
+  </si>
+  <si>
+    <t>Fait</t>
   </si>
   <si>
     <t>Backend</t>
   </si>
   <si>
-    <t>Fonction de recuperation des frais d'achat</t>
+    <t xml:space="preserve">Fonction de recuperation des frais d'achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À faire</t>
   </si>
   <si>
     <t>Interface</t>
   </si>
   <si>
-    <t>Page de modification du % de frais</t>
-  </si>
-  <si>
-    <t>Page d'insertion de don pour chaque ville</t>
-  </si>
-  <si>
-    <t>Page de visualisation des dons en details</t>
+    <t xml:space="preserve">Page de modification du % de frais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page d'insertion de don pour chaque ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page de visualisation des dons en details</t>
   </si>
   <si>
     <t>Achat</t>
   </si>
   <si>
-    <t>Creer la table achat</t>
-  </si>
-  <si>
-    <t>Champs: id, ville_id, besoin_id, montant, pourcentage, montant_total, date_achat</t>
-  </si>
-  <si>
-    <t>Verification du dons argents avant achat</t>
-  </si>
-  <si>
-    <t>Calcul montant total avec frais</t>
-  </si>
-  <si>
-    <t>Deduction auto du don argent</t>
-  </si>
-  <si>
-    <t>Message d'erreur si argent insuffisant</t>
-  </si>
-  <si>
-    <t>Filtrer achats par ville</t>
-  </si>
-  <si>
-    <t>Page de saisi achat</t>
+    <t xml:space="preserve">Creer la table achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champs: id, ville_id, besoin_id, montant, pourcentage, montant_total, date_achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification du dons argents avant achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul montant total avec frais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deduction auto du don argent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message d'erreur si argent insuffisant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrer achats par ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page de saisi achat</t>
   </si>
   <si>
     <t xml:space="preserve">Vue </t>
   </si>
   <si>
-    <t>Liste des achats filtrables par ville</t>
+    <t xml:space="preserve">Liste des achats filtrables par ville</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -304,100 +303,97 @@
     <t>Simulation</t>
   </si>
   <si>
-    <t>Fonction simulation dispatch</t>
-  </si>
-  <si>
-    <t>Calcul besoins satisfaits apres simulation</t>
-  </si>
-  <si>
-    <t>Calcul dons restants apres simulation</t>
-  </si>
-  <si>
-    <t>Bouton "Simuler"</t>
-  </si>
-  <si>
-    <t>Affichage tableau resultat simulation</t>
-  </si>
-  <si>
-    <t>Bouton "Valider"  pour insert dispatch</t>
-  </si>
-  <si>
-    <t>Besoins restants</t>
-  </si>
-  <si>
-    <t>Calcul besoin total</t>
-  </si>
-  <si>
-    <t>Calcul besoin satisfait</t>
-  </si>
-  <si>
-    <t>Calcul besoin restant</t>
-  </si>
-  <si>
-    <t>Tableau des besoins restants</t>
-  </si>
-  <si>
-    <t>Bouton "Acheter" par besoin</t>
+    <t xml:space="preserve">Fonction simulation dispatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul besoins satisfaits apres simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul dons restants apres simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouton "Simuler"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage tableau resultat simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouton "Valider"  pour insert dispatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besoins restants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul besoin total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul besoin satisfait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul besoin restant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableau des besoins restants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouton "Acheter" par besoin</t>
   </si>
   <si>
     <t>Recapitulatif</t>
   </si>
   <si>
-    <t>Requete total besoins (SUM quantite × prix_unitaire)</t>
-  </si>
-  <si>
-    <t>Requête total satisfaits</t>
-  </si>
-  <si>
-    <t>Requête total restants</t>
-  </si>
-  <si>
-    <t>Page récapitulatif</t>
+    <t xml:space="preserve">Requete total besoins (SUM quantite × prix_unitaire)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requête total satisfaits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requête total restants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page récapitulatif</t>
   </si>
   <si>
     <t>FrontEnd</t>
   </si>
   <si>
-    <t>Bouton "Actualiser" en Ajax</t>
-  </si>
-  <si>
-    <t>Requête AJAX refresh données</t>
+    <t xml:space="preserve">Bouton "Actualiser" en Ajax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requête AJAX refresh données</t>
   </si>
   <si>
     <t>UX</t>
   </si>
   <si>
-    <t>Affichage cartes (Total / Satisfait / Restant)</t>
+    <t xml:space="preserve">Affichage cartes (Total / Satisfait / Restant)</t>
   </si>
   <si>
     <t>UI/UX</t>
   </si>
   <si>
-    <t>Design integrale des interfaces</t>
-  </si>
-  <si>
-    <t>Fait</t>
+    <t xml:space="preserve">Design integrale des interfaces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="14.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -425,23 +421,24 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="7">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,8 +456,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -651,61 +931,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A73" zoomScale="100" workbookViewId="0">
+      <selection activeCell="D93" activeCellId="0" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="76.140625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="23.42578125"/>
+    <col customWidth="1" min="2" max="2" width="16.140625"/>
+    <col customWidth="1" min="3" max="3" width="76.140625"/>
+    <col customWidth="1" min="5" max="5" width="21"/>
+    <col customWidth="1" min="6" max="6" width="14.28515625"/>
+    <col customWidth="1" min="7" max="7" width="26.7109375"/>
+    <col customWidth="1" min="8" max="8" width="27.7109375"/>
+    <col customWidth="1" min="9" max="9" width="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -741,17 +1019,17 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -768,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -776,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -788,7 +1066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -799,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -810,7 +1088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -818,7 +1096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -826,11 +1104,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -842,7 +1120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -853,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -864,7 +1142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -875,7 +1153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="C24" t="s">
         <v>24</v>
       </c>
@@ -886,7 +1164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -897,18 +1175,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="F26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="F27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1"/>
+    <row r="30" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -931,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" ht="15.75">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -948,7 +1226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" ht="15.75">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
@@ -968,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" ht="15.75">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
@@ -988,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1008,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1028,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1048,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1068,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1088,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1108,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1125,7 +1403,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1142,10 +1420,10 @@
         <v>40</v>
       </c>
       <c r="G43" s="5">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.92000000000000004</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1165,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1185,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1205,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1225,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1263,12 +1541,12 @@
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
     </row>
-    <row r="53" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" ht="18.75">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1306,7 +1584,7 @@
       <c r="AI56" s="3"/>
       <c r="AJ56" s="3"/>
     </row>
-    <row r="58" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" ht="18.75">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -1329,7 +1607,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -1340,7 +1618,7 @@
         <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
         <v>43</v>
@@ -1349,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -1360,41 +1638,41 @@
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>72</v>
       </c>
       <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
         <v>77</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" t="s">
-        <v>74</v>
       </c>
       <c r="F61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
         <v>43</v>
@@ -1403,18 +1681,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F64" t="s">
         <v>43</v>
@@ -1423,18 +1701,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
@@ -1443,18 +1721,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
         <v>43</v>
@@ -1463,162 +1741,162 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
         <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="D75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s">
         <v>43</v>
       </c>
       <c r="G76" s="5">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94999999999999996</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s">
         <v>43</v>
@@ -1627,18 +1905,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s">
         <v>43</v>
@@ -1647,18 +1925,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s">
         <v>43</v>
@@ -1667,18 +1945,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
         <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D80" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s">
         <v>43</v>
@@ -1687,18 +1965,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
         <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F81" t="s">
         <v>43</v>
@@ -1707,100 +1985,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
         <v>46</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F83" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
         <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F84" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F85" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
         <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F86" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
         <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
         <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D89" t="s">
         <v>74</v>
@@ -1809,127 +2087,132 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
         <v>46</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
         <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F91" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
         <v>54</v>
       </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F92" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F93" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F94" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F95" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F97" t="s">
         <v>43</v>
       </c>
+      <c r="G97" s="5">
+        <v>0.94999999999999996</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/todo.xlsx
+++ b/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Objectifs</t>
   </si>
@@ -231,16 +231,13 @@
     <t>Priorité</t>
   </si>
   <si>
-    <t>Avancement</t>
-  </si>
-  <si>
     <t>Configuration</t>
   </si>
   <si>
     <t xml:space="preserve">Faire un table achat (avec colonne pourcentage)</t>
   </si>
   <si>
-    <t>Fait</t>
+    <t xml:space="preserve">À faire</t>
   </si>
   <si>
     <t>Backend</t>
@@ -249,21 +246,12 @@
     <t xml:space="preserve">Fonction de recuperation des frais d'achat</t>
   </si>
   <si>
-    <t xml:space="preserve">À faire</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
     <t xml:space="preserve">Page de modification du % de frais</t>
   </si>
   <si>
-    <t xml:space="preserve">Page d'insertion de don pour chaque ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page de visualisation des dons en details</t>
-  </si>
-  <si>
     <t>Achat</t>
   </si>
   <si>
@@ -297,9 +285,6 @@
     <t xml:space="preserve">Liste des achats filtrables par ville</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Simulation</t>
   </si>
   <si>
@@ -367,12 +352,6 @@
   </si>
   <si>
     <t xml:space="preserve">Affichage cartes (Total / Satisfait / Restant)</t>
-  </si>
-  <si>
-    <t>UI/UX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design integrale des interfaces</t>
   </si>
 </sst>
 </file>
@@ -431,12 +410,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -937,20 +917,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="100" workbookViewId="0">
-      <selection activeCell="D93" activeCellId="0" sqref="D93"/>
+    <sheetView topLeftCell="A47" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.42578125"/>
+    <col customWidth="1" min="1" max="1" width="23.421875"/>
     <col customWidth="1" min="2" max="2" width="16.140625"/>
     <col customWidth="1" min="3" max="3" width="76.140625"/>
-    <col customWidth="1" min="5" max="5" width="21"/>
-    <col customWidth="1" min="6" max="6" width="14.28515625"/>
-    <col customWidth="1" min="7" max="7" width="26.7109375"/>
+    <col customWidth="1" min="5" max="5" width="21.00390625"/>
+    <col customWidth="1" min="6" max="6" width="14.28125"/>
     <col customWidth="1" min="8" max="8" width="27.7109375"/>
-    <col customWidth="1" min="9" max="9" width="26"/>
+    <col customWidth="1" min="9" max="9" width="26.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75">
@@ -983,7 +962,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="14.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1038,7 +1017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="14.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="14.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.25">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -1088,7 +1067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="14.25">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="14.25">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -1131,7 +1110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="14.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="14.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="14.25">
       <c r="C24" t="s">
         <v>24</v>
       </c>
@@ -1164,7 +1143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="14.25">
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1175,17 +1154,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="14.25">
       <c r="F26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="14.25">
       <c r="F27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1"/>
+    <row r="28" s="3" customFormat="1" ht="15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
     <row r="30" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>31</v>
@@ -1209,11 +1195,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" ht="15.75">
+    <row r="31" ht="16.5">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C31" t="s">
@@ -1226,47 +1212,47 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" ht="15.75">
+    <row r="32" ht="16.5">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>8</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="15.75">
+    <row r="33" ht="16.5">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="14.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1279,74 +1265,81 @@
       <c r="E34">
         <v>7</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s">
+    <row r="35" ht="14.25">
+      <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>10</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s">
+    <row r="36" ht="14.25">
+      <c r="A36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <v>10</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s">
+    <row r="37" ht="14.25">
+      <c r="A37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>7</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="38" ht="14.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" ht="14.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1356,17 +1349,17 @@
       <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>10</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="14.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1376,17 +1369,17 @@
       <c r="C40" t="s">
         <v>56</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <v>10</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="14.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1403,7 +1396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="14.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1419,11 +1412,11 @@
       <c r="F43" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="6">
         <v>0.92000000000000004</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="14.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1436,14 +1429,14 @@
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="14.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1456,14 +1449,14 @@
       <c r="E46">
         <v>5</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="14.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1479,11 +1472,11 @@
       <c r="F47" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="14.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1499,11 +1492,11 @@
       <c r="F49" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="14.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1546,7 +1539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="14.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1603,616 +1596,453 @@
       <c r="F58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="1" t="s">
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>72</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
         <v>74</v>
       </c>
-      <c r="F59" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>75</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
         <v>76</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C61" t="s">
         <v>77</v>
       </c>
-      <c r="F60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="D61" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="D62" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" t="s">
         <v>78</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>79</v>
       </c>
-      <c r="D61" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
+      <c r="D63" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
         <v>54</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" t="s">
-        <v>43</v>
-      </c>
-      <c r="G66" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
         <v>87</v>
-      </c>
-      <c r="D70" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>75</v>
       </c>
       <c r="C71" t="s">
         <v>88</v>
       </c>
-      <c r="D71" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D71" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="D72" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" t="s">
         <v>89</v>
       </c>
-      <c r="D72" t="s">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>82</v>
-      </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
         <v>90</v>
       </c>
-      <c r="D73" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D73" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
         <v>91</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
         <v>92</v>
       </c>
-      <c r="D74" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="s">
+      <c r="D75" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
+      <c r="D76" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
         <v>94</v>
       </c>
-      <c r="B76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D77" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
         <v>95</v>
       </c>
-      <c r="D76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" t="s">
-        <v>43</v>
-      </c>
-      <c r="G76" s="5">
-        <v>0.94999999999999996</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D78" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="7"/>
+      <c r="D79" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" t="s">
         <v>96</v>
       </c>
-      <c r="D77" t="s">
-        <v>74</v>
-      </c>
-      <c r="F77" t="s">
-        <v>43</v>
-      </c>
-      <c r="G77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
         <v>97</v>
       </c>
-      <c r="D78" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="D80" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
         <v>54</v>
       </c>
-      <c r="C79" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="s">
         <v>54</v>
       </c>
-      <c r="C80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" t="s">
-        <v>74</v>
-      </c>
-      <c r="F81" t="s">
-        <v>43</v>
-      </c>
-      <c r="G81" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
+      <c r="C84" t="s">
         <v>101</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D84" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" t="s">
         <v>46</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D83" t="s">
-        <v>74</v>
-      </c>
-      <c r="F83" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="B87" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C84" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" t="s">
-        <v>74</v>
-      </c>
-      <c r="F84" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C87" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C85" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F85" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C88" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
         <v>54</v>
       </c>
-      <c r="C86" t="s">
-        <v>105</v>
-      </c>
-      <c r="D86" t="s">
-        <v>77</v>
-      </c>
-      <c r="F86" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>101</v>
-      </c>
-      <c r="B87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>106</v>
       </c>
-      <c r="D87" t="s">
-        <v>77</v>
-      </c>
-      <c r="F87" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
+      <c r="D89" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" t="s">
         <v>107</v>
       </c>
-      <c r="B89" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>108</v>
       </c>
-      <c r="D89" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
+      <c r="D90" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B90" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="D91" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
         <v>110</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" t="s">
-        <v>54</v>
       </c>
       <c r="C92" t="s">
         <v>111</v>
       </c>
-      <c r="D92" t="s">
-        <v>77</v>
-      </c>
-      <c r="F92" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D93" t="s">
-        <v>77</v>
-      </c>
-      <c r="F93" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" t="s">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D95" t="s">
-        <v>77</v>
-      </c>
-      <c r="F95" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>57</v>
-      </c>
-      <c r="B97" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" t="s">
-        <v>77</v>
-      </c>
-      <c r="F97" t="s">
-        <v>43</v>
-      </c>
-      <c r="G97" s="5">
-        <v>0.94999999999999996</v>
+      <c r="D92" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/todo.xlsx
+++ b/todo.xlsx
@@ -2001,6 +2001,9 @@
       <c r="F83" t="s">
         <v>43</v>
       </c>
+      <c r="G83" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -2018,6 +2021,9 @@
       <c r="F84" t="s">
         <v>43</v>
       </c>
+      <c r="G84" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -2035,6 +2041,9 @@
       <c r="F85" t="s">
         <v>43</v>
       </c>
+      <c r="G85" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -2052,6 +2061,9 @@
       <c r="F86" t="s">
         <v>40</v>
       </c>
+      <c r="G86" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -2068,6 +2080,9 @@
       </c>
       <c r="F87" t="s">
         <v>40</v>
+      </c>
+      <c r="G87" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
